--- a/analysis/pre_gemini_data/participant180/hard.xlsx
+++ b/analysis/pre_gemini_data/participant180/hard.xlsx
@@ -17,16 +17,13 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="2">
+  <fonts count="1">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
       <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -37,7 +34,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -45,21 +42,12 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -425,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO12"/>
+  <dimension ref="A1:AO9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -434,207 +422,203 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Unnamed: 0</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="A1" t="inlineStr"/>
+      <c r="B1" t="inlineStr">
         <is>
           <t>arg</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="C1" t="inlineStr">
         <is>
           <t>arg2</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="D1" t="inlineStr">
         <is>
           <t>arg3</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="E1" t="inlineStr">
         <is>
           <t>arg4</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="F1" t="inlineStr">
         <is>
           <t>arg5</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="G1" t="inlineStr">
         <is>
           <t>assignment</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="H1" t="inlineStr">
         <is>
           <t>code</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="I1" t="inlineStr">
         <is>
           <t>condstat</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="J1" t="inlineStr">
         <is>
           <t>condstat2</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="K1" t="inlineStr">
         <is>
           <t>condstat5</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="L1" t="inlineStr">
         <is>
           <t>gemini</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="M1" t="inlineStr">
         <is>
           <t>index</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="N1" t="inlineStr">
         <is>
           <t>loop stat</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="O1" t="inlineStr">
         <is>
           <t>loopbody</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="P1" t="inlineStr">
         <is>
           <t>loopbody2</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="Q1" t="inlineStr">
         <is>
           <t>loopbody3</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="R1" t="inlineStr">
         <is>
           <t>loopstat2</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="S1" t="inlineStr">
         <is>
           <t>loopstat3</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="T1" t="inlineStr">
         <is>
           <t>loopstat5</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="U1" t="inlineStr">
         <is>
           <t>methdocall2</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="V1" t="inlineStr">
         <is>
           <t>methdocall3</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="W1" t="inlineStr">
         <is>
           <t>methodcall</t>
         </is>
       </c>
-      <c r="X1" s="1" t="inlineStr">
+      <c r="X1" t="inlineStr">
         <is>
           <t>methodcall4</t>
         </is>
       </c>
-      <c r="Y1" s="1" t="inlineStr">
+      <c r="Y1" t="inlineStr">
         <is>
           <t>methodcall5</t>
         </is>
       </c>
-      <c r="Z1" s="1" t="inlineStr">
+      <c r="Z1" t="inlineStr">
         <is>
           <t>methoddec</t>
         </is>
       </c>
-      <c r="AA1" s="1" t="inlineStr">
+      <c r="AA1" t="inlineStr">
         <is>
           <t>parameter</t>
         </is>
       </c>
-      <c r="AB1" s="1" t="inlineStr">
+      <c r="AB1" t="inlineStr">
         <is>
           <t>summary</t>
         </is>
       </c>
-      <c r="AC1" s="1" t="inlineStr">
+      <c r="AC1" t="inlineStr">
         <is>
           <t>var4</t>
         </is>
       </c>
-      <c r="AD1" s="1" t="inlineStr">
+      <c r="AD1" t="inlineStr">
         <is>
           <t>varaibl2</t>
         </is>
       </c>
-      <c r="AE1" s="1" t="inlineStr">
+      <c r="AE1" t="inlineStr">
         <is>
           <t>variabl1</t>
         </is>
       </c>
-      <c r="AF1" s="1" t="inlineStr">
+      <c r="AF1" t="inlineStr">
         <is>
           <t>variabl10</t>
         </is>
       </c>
-      <c r="AG1" s="1" t="inlineStr">
+      <c r="AG1" t="inlineStr">
         <is>
           <t>variabl12</t>
         </is>
       </c>
-      <c r="AH1" s="1" t="inlineStr">
+      <c r="AH1" t="inlineStr">
         <is>
           <t>variabl14</t>
         </is>
       </c>
-      <c r="AI1" s="1" t="inlineStr">
+      <c r="AI1" t="inlineStr">
         <is>
           <t>variabl15</t>
         </is>
       </c>
-      <c r="AJ1" s="1" t="inlineStr">
+      <c r="AJ1" t="inlineStr">
         <is>
           <t>variabl4</t>
         </is>
       </c>
-      <c r="AK1" s="1" t="inlineStr">
+      <c r="AK1" t="inlineStr">
         <is>
           <t>variabl5</t>
         </is>
       </c>
-      <c r="AL1" s="1" t="inlineStr">
+      <c r="AL1" t="inlineStr">
         <is>
           <t>variabl6</t>
         </is>
       </c>
-      <c r="AM1" s="1" t="inlineStr">
+      <c r="AM1" t="inlineStr">
         <is>
           <t>variabl7</t>
         </is>
       </c>
-      <c r="AN1" s="1" t="inlineStr">
+      <c r="AN1" t="inlineStr">
         <is>
           <t>variabl8</t>
         </is>
       </c>
-      <c r="AO1" s="1" t="inlineStr">
+      <c r="AO1" t="inlineStr">
         <is>
           <t>variable3</t>
         </is>
@@ -701,16 +685,16 @@
       </c>
       <c r="F3" t="inlineStr"/>
       <c r="G3" t="n">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="H3" t="n">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="I3" t="n">
         <v>10</v>
       </c>
       <c r="J3" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="K3" t="n">
         <v>3</v>
@@ -719,32 +703,32 @@
         <v>19</v>
       </c>
       <c r="M3" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="N3" t="n">
         <v>5</v>
       </c>
       <c r="O3" t="n">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="P3" t="n">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="Q3" t="n">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="R3" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="S3" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="T3" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="U3" t="inlineStr"/>
       <c r="V3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
         <v>2</v>
@@ -762,10 +746,10 @@
         <v>2</v>
       </c>
       <c r="AB3" t="n">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="AC3" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AD3" t="n">
         <v>1</v>
@@ -783,13 +767,13 @@
       <c r="AI3" t="inlineStr"/>
       <c r="AJ3" t="inlineStr"/>
       <c r="AK3" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AL3" t="n">
         <v>1</v>
       </c>
       <c r="AM3" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AN3" t="n">
         <v>3</v>
@@ -812,16 +796,16 @@
       </c>
       <c r="F4" t="inlineStr"/>
       <c r="G4" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="H4" t="n">
-        <v>186</v>
+        <v>158</v>
       </c>
       <c r="I4" t="n">
         <v>14</v>
       </c>
       <c r="J4" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="K4" t="n">
         <v>8</v>
@@ -830,32 +814,32 @@
         <v>109</v>
       </c>
       <c r="M4" t="n">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="N4" t="n">
         <v>9</v>
       </c>
       <c r="O4" t="n">
-        <v>154</v>
+        <v>130</v>
       </c>
       <c r="P4" t="n">
-        <v>108</v>
+        <v>88</v>
       </c>
       <c r="Q4" t="n">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="R4" t="n">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="S4" t="n">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="T4" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="U4" t="inlineStr"/>
       <c r="V4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="W4" t="n">
         <v>3</v>
@@ -873,10 +857,10 @@
         <v>10</v>
       </c>
       <c r="AB4" t="n">
-        <v>120</v>
+        <v>104</v>
       </c>
       <c r="AC4" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AD4" t="n">
         <v>2</v>
@@ -894,13 +878,13 @@
       <c r="AI4" t="inlineStr"/>
       <c r="AJ4" t="inlineStr"/>
       <c r="AK4" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="AL4" t="n">
         <v>2</v>
       </c>
       <c r="AM4" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AN4" t="n">
         <v>5</v>
@@ -923,16 +907,16 @@
       </c>
       <c r="F5" t="inlineStr"/>
       <c r="G5" t="n">
-        <v>11997.97</v>
+        <v>9677.690000000001</v>
       </c>
       <c r="H5" t="n">
-        <v>53958.74</v>
+        <v>44847.86</v>
       </c>
       <c r="I5" t="n">
         <v>3286.73</v>
       </c>
       <c r="J5" t="n">
-        <v>4771.71</v>
+        <v>3136.66</v>
       </c>
       <c r="K5" t="n">
         <v>1134.37</v>
@@ -941,32 +925,32 @@
         <v>45760.27</v>
       </c>
       <c r="M5" t="n">
-        <v>4939.73</v>
+        <v>3421.25</v>
       </c>
       <c r="N5" t="n">
         <v>2702.81</v>
       </c>
       <c r="O5" t="n">
-        <v>45149.26</v>
+        <v>37256.45</v>
       </c>
       <c r="P5" t="n">
-        <v>34654.87</v>
+        <v>27562.87</v>
       </c>
       <c r="Q5" t="n">
-        <v>14381.39</v>
+        <v>11311.47</v>
       </c>
       <c r="R5" t="n">
-        <v>6840.95</v>
+        <v>5723.09</v>
       </c>
       <c r="S5" t="n">
-        <v>8158.36</v>
+        <v>6790.13</v>
       </c>
       <c r="T5" t="n">
-        <v>4021.88</v>
+        <v>3220.09</v>
       </c>
       <c r="U5" t="inlineStr"/>
       <c r="V5" t="n">
-        <v>750.83</v>
+        <v>467.2</v>
       </c>
       <c r="W5" t="n">
         <v>717.5</v>
@@ -984,10 +968,10 @@
         <v>2285.9</v>
       </c>
       <c r="AB5" t="n">
-        <v>47900.4</v>
+        <v>44530.27</v>
       </c>
       <c r="AC5" t="n">
-        <v>1952.23</v>
+        <v>1751.99</v>
       </c>
       <c r="AD5" t="n">
         <v>650.6799999999999</v>
@@ -1005,13 +989,13 @@
       <c r="AI5" t="inlineStr"/>
       <c r="AJ5" t="inlineStr"/>
       <c r="AK5" t="n">
-        <v>3588.28</v>
+        <v>2270.03</v>
       </c>
       <c r="AL5" t="n">
         <v>867.55</v>
       </c>
       <c r="AM5" t="n">
-        <v>1852.89</v>
+        <v>1184.53</v>
       </c>
       <c r="AN5" t="n">
         <v>1418.16</v>
@@ -1030,105 +1014,105 @@
       <c r="C6" t="inlineStr"/>
       <c r="D6" t="inlineStr"/>
       <c r="E6" t="n">
-        <v>0.76</v>
+        <v>1.48</v>
       </c>
       <c r="F6" t="inlineStr"/>
       <c r="G6" t="n">
-        <v>4.61</v>
+        <v>7.22</v>
       </c>
       <c r="H6" t="n">
-        <v>20.73</v>
+        <v>33.48</v>
       </c>
       <c r="I6" t="n">
-        <v>1.26</v>
+        <v>2.45</v>
       </c>
       <c r="J6" t="n">
-        <v>1.83</v>
+        <v>2.34</v>
       </c>
       <c r="K6" t="n">
-        <v>0.44</v>
+        <v>0.85</v>
       </c>
       <c r="L6" t="n">
         <v>36.21</v>
       </c>
       <c r="M6" t="n">
-        <v>1.9</v>
+        <v>2.55</v>
       </c>
       <c r="N6" t="n">
-        <v>1.04</v>
+        <v>2.02</v>
       </c>
       <c r="O6" t="n">
-        <v>17.34</v>
+        <v>27.81</v>
       </c>
       <c r="P6" t="n">
-        <v>13.31</v>
+        <v>20.57</v>
       </c>
       <c r="Q6" t="n">
-        <v>5.52</v>
+        <v>8.44</v>
       </c>
       <c r="R6" t="n">
-        <v>2.63</v>
+        <v>4.27</v>
       </c>
       <c r="S6" t="n">
-        <v>3.13</v>
+        <v>5.07</v>
       </c>
       <c r="T6" t="n">
-        <v>1.54</v>
+        <v>2.4</v>
       </c>
       <c r="U6" t="inlineStr"/>
       <c r="V6" t="n">
-        <v>0.29</v>
+        <v>0.35</v>
       </c>
       <c r="W6" t="n">
-        <v>0.28</v>
+        <v>0.54</v>
       </c>
       <c r="X6" t="n">
-        <v>0.35</v>
+        <v>0.67</v>
       </c>
       <c r="Y6" t="n">
-        <v>0.12</v>
+        <v>0.24</v>
       </c>
       <c r="Z6" t="n">
-        <v>0.66</v>
+        <v>1.28</v>
       </c>
       <c r="AA6" t="n">
-        <v>0.88</v>
+        <v>1.71</v>
       </c>
       <c r="AB6" t="n">
-        <v>18.4</v>
+        <v>33.24</v>
       </c>
       <c r="AC6" t="n">
-        <v>0.75</v>
+        <v>1.31</v>
       </c>
       <c r="AD6" t="n">
-        <v>0.25</v>
+        <v>0.49</v>
       </c>
       <c r="AE6" t="n">
-        <v>0.36</v>
+        <v>0.7</v>
       </c>
       <c r="AF6" t="n">
-        <v>0.98</v>
+        <v>1.91</v>
       </c>
       <c r="AG6" t="n">
-        <v>0.53</v>
+        <v>1.03</v>
       </c>
       <c r="AH6" t="inlineStr"/>
       <c r="AI6" t="inlineStr"/>
       <c r="AJ6" t="inlineStr"/>
       <c r="AK6" t="n">
-        <v>1.38</v>
+        <v>1.69</v>
       </c>
       <c r="AL6" t="n">
-        <v>0.33</v>
+        <v>0.65</v>
       </c>
       <c r="AM6" t="n">
-        <v>0.71</v>
+        <v>0.88</v>
       </c>
       <c r="AN6" t="n">
-        <v>0.54</v>
+        <v>1.06</v>
       </c>
       <c r="AO6" t="n">
-        <v>0.08</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="7">
@@ -1145,16 +1129,16 @@
       </c>
       <c r="F7" t="inlineStr"/>
       <c r="G7" t="n">
-        <v>292.63</v>
+        <v>284.64</v>
       </c>
       <c r="H7" t="n">
-        <v>290.1</v>
+        <v>283.85</v>
       </c>
       <c r="I7" t="n">
         <v>234.77</v>
       </c>
       <c r="J7" t="n">
-        <v>477.17</v>
+        <v>522.78</v>
       </c>
       <c r="K7" t="n">
         <v>141.8</v>
@@ -1163,32 +1147,32 @@
         <v>419.82</v>
       </c>
       <c r="M7" t="n">
-        <v>411.64</v>
+        <v>427.66</v>
       </c>
       <c r="N7" t="n">
         <v>300.31</v>
       </c>
       <c r="O7" t="n">
-        <v>293.18</v>
+        <v>286.59</v>
       </c>
       <c r="P7" t="n">
-        <v>320.88</v>
+        <v>313.21</v>
       </c>
       <c r="Q7" t="n">
-        <v>368.75</v>
+        <v>364.89</v>
       </c>
       <c r="R7" t="n">
-        <v>360.05</v>
+        <v>357.69</v>
       </c>
       <c r="S7" t="n">
-        <v>429.39</v>
+        <v>452.68</v>
       </c>
       <c r="T7" t="n">
-        <v>268.13</v>
+        <v>268.34</v>
       </c>
       <c r="U7" t="inlineStr"/>
       <c r="V7" t="n">
-        <v>375.41</v>
+        <v>467.2</v>
       </c>
       <c r="W7" t="n">
         <v>239.17</v>
@@ -1206,10 +1190,10 @@
         <v>228.59</v>
       </c>
       <c r="AB7" t="n">
-        <v>399.17</v>
+        <v>428.18</v>
       </c>
       <c r="AC7" t="n">
-        <v>244.03</v>
+        <v>250.28</v>
       </c>
       <c r="AD7" t="n">
         <v>325.34</v>
@@ -1227,13 +1211,13 @@
       <c r="AI7" t="inlineStr"/>
       <c r="AJ7" t="inlineStr"/>
       <c r="AK7" t="n">
-        <v>448.53</v>
+        <v>454.01</v>
       </c>
       <c r="AL7" t="n">
         <v>433.77</v>
       </c>
       <c r="AM7" t="n">
-        <v>370.58</v>
+        <v>394.84</v>
       </c>
       <c r="AN7" t="n">
         <v>283.63</v>
@@ -1396,135 +1380,6 @@
       <c r="AN9" t="inlineStr"/>
       <c r="AO9" t="inlineStr"/>
     </row>
-    <row r="10">
-      <c r="A10" t="inlineStr"/>
-      <c r="B10" t="inlineStr"/>
-      <c r="C10" t="inlineStr"/>
-      <c r="D10" t="inlineStr"/>
-      <c r="E10" t="inlineStr"/>
-      <c r="F10" t="inlineStr"/>
-      <c r="G10" t="inlineStr"/>
-      <c r="H10" t="inlineStr"/>
-      <c r="I10" t="inlineStr"/>
-      <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr"/>
-      <c r="M10" t="inlineStr"/>
-      <c r="N10" t="inlineStr"/>
-      <c r="O10" t="inlineStr"/>
-      <c r="P10" t="inlineStr"/>
-      <c r="Q10" t="inlineStr"/>
-      <c r="R10" t="inlineStr"/>
-      <c r="S10" t="inlineStr"/>
-      <c r="T10" t="inlineStr"/>
-      <c r="U10" t="inlineStr"/>
-      <c r="V10" t="inlineStr"/>
-      <c r="W10" t="inlineStr"/>
-      <c r="X10" t="inlineStr"/>
-      <c r="Y10" t="inlineStr"/>
-      <c r="Z10" t="inlineStr"/>
-      <c r="AA10" t="inlineStr"/>
-      <c r="AB10" t="inlineStr"/>
-      <c r="AC10" t="inlineStr"/>
-      <c r="AD10" t="inlineStr"/>
-      <c r="AE10" t="inlineStr"/>
-      <c r="AF10" t="inlineStr"/>
-      <c r="AG10" t="inlineStr"/>
-      <c r="AH10" t="inlineStr"/>
-      <c r="AI10" t="inlineStr"/>
-      <c r="AJ10" t="inlineStr"/>
-      <c r="AK10" t="inlineStr"/>
-      <c r="AL10" t="inlineStr"/>
-      <c r="AM10" t="inlineStr"/>
-      <c r="AN10" t="inlineStr"/>
-      <c r="AO10" t="inlineStr"/>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr"/>
-      <c r="B11" t="inlineStr"/>
-      <c r="C11" t="inlineStr"/>
-      <c r="D11" t="inlineStr"/>
-      <c r="E11" t="inlineStr"/>
-      <c r="F11" t="inlineStr"/>
-      <c r="G11" t="inlineStr"/>
-      <c r="H11" t="inlineStr"/>
-      <c r="I11" t="inlineStr"/>
-      <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr"/>
-      <c r="M11" t="inlineStr"/>
-      <c r="N11" t="inlineStr"/>
-      <c r="O11" t="inlineStr"/>
-      <c r="P11" t="inlineStr"/>
-      <c r="Q11" t="inlineStr"/>
-      <c r="R11" t="inlineStr"/>
-      <c r="S11" t="inlineStr"/>
-      <c r="T11" t="inlineStr"/>
-      <c r="U11" t="inlineStr"/>
-      <c r="V11" t="inlineStr"/>
-      <c r="W11" t="inlineStr"/>
-      <c r="X11" t="inlineStr"/>
-      <c r="Y11" t="inlineStr"/>
-      <c r="Z11" t="inlineStr"/>
-      <c r="AA11" t="inlineStr"/>
-      <c r="AB11" t="inlineStr"/>
-      <c r="AC11" t="inlineStr"/>
-      <c r="AD11" t="inlineStr"/>
-      <c r="AE11" t="inlineStr"/>
-      <c r="AF11" t="inlineStr"/>
-      <c r="AG11" t="inlineStr"/>
-      <c r="AH11" t="inlineStr"/>
-      <c r="AI11" t="inlineStr"/>
-      <c r="AJ11" t="inlineStr"/>
-      <c r="AK11" t="inlineStr"/>
-      <c r="AL11" t="inlineStr"/>
-      <c r="AM11" t="inlineStr"/>
-      <c r="AN11" t="inlineStr"/>
-      <c r="AO11" t="inlineStr"/>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr"/>
-      <c r="B12" t="inlineStr"/>
-      <c r="C12" t="inlineStr"/>
-      <c r="D12" t="inlineStr"/>
-      <c r="E12" t="inlineStr"/>
-      <c r="F12" t="inlineStr"/>
-      <c r="G12" t="inlineStr"/>
-      <c r="H12" t="inlineStr"/>
-      <c r="I12" t="inlineStr"/>
-      <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr"/>
-      <c r="M12" t="inlineStr"/>
-      <c r="N12" t="inlineStr"/>
-      <c r="O12" t="inlineStr"/>
-      <c r="P12" t="inlineStr"/>
-      <c r="Q12" t="inlineStr"/>
-      <c r="R12" t="inlineStr"/>
-      <c r="S12" t="inlineStr"/>
-      <c r="T12" t="inlineStr"/>
-      <c r="U12" t="inlineStr"/>
-      <c r="V12" t="inlineStr"/>
-      <c r="W12" t="inlineStr"/>
-      <c r="X12" t="inlineStr"/>
-      <c r="Y12" t="inlineStr"/>
-      <c r="Z12" t="inlineStr"/>
-      <c r="AA12" t="inlineStr"/>
-      <c r="AB12" t="inlineStr"/>
-      <c r="AC12" t="inlineStr"/>
-      <c r="AD12" t="inlineStr"/>
-      <c r="AE12" t="inlineStr"/>
-      <c r="AF12" t="inlineStr"/>
-      <c r="AG12" t="inlineStr"/>
-      <c r="AH12" t="inlineStr"/>
-      <c r="AI12" t="inlineStr"/>
-      <c r="AJ12" t="inlineStr"/>
-      <c r="AK12" t="inlineStr"/>
-      <c r="AL12" t="inlineStr"/>
-      <c r="AM12" t="inlineStr"/>
-      <c r="AN12" t="inlineStr"/>
-      <c r="AO12" t="inlineStr"/>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
